--- a/input data/Test Schedule.XLSX
+++ b/input data/Test Schedule.XLSX
@@ -894,12 +894,12 @@
     <definedName name="эккона" localSheetId="2">#REF!</definedName>
     <definedName name="эккона">[3]Константы!$A$11</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="72">
   <si>
     <t>суб., вос.</t>
   </si>
@@ -2175,21 +2175,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,6 +2212,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7901,8 +7901,8 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E10" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J10" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8556,8 +8556,8 @@
       <c r="AD15" s="23"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
-      <c r="AG15" s="20">
-        <v>31</v>
+      <c r="AG15" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -10079,101 +10079,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="110"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="105"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="111" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="113"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="108"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="48">
         <v>1</v>
       </c>
@@ -11575,16 +11575,16 @@
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
       <c r="V28" s="59"/>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
@@ -11607,69 +11607,69 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
     </row>
     <row r="30" spans="1:36" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
     </row>
     <row r="31" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
     </row>
     <row r="32" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="66"/>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -11688,11 +11688,11 @@
       <c r="U32" s="68"/>
     </row>
     <row r="33" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
@@ -11734,11 +11734,11 @@
       <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
@@ -11757,11 +11757,11 @@
       <c r="U35" s="69"/>
     </row>
     <row r="36" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
@@ -11780,11 +11780,11 @@
       <c r="U36" s="69"/>
     </row>
     <row r="37" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
@@ -11803,11 +11803,11 @@
       <c r="U37" s="69"/>
     </row>
     <row r="38" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="102"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
@@ -11826,11 +11826,11 @@
       <c r="U38" s="69"/>
     </row>
     <row r="39" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="102"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
@@ -11848,11 +11848,11 @@
       <c r="U39" s="69"/>
     </row>
     <row r="40" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="105"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
@@ -11871,11 +11871,11 @@
       <c r="U40" s="69"/>
     </row>
     <row r="41" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
@@ -11894,11 +11894,11 @@
       <c r="U41" s="69"/>
     </row>
     <row r="42" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
@@ -11917,11 +11917,11 @@
       <c r="U42" s="69"/>
     </row>
     <row r="43" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
@@ -11940,11 +11940,11 @@
       <c r="U43" s="69"/>
     </row>
     <row r="44" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="102"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
@@ -11963,11 +11963,11 @@
       <c r="U44" s="69"/>
     </row>
     <row r="45" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
@@ -11986,11 +11986,11 @@
       <c r="U45" s="69"/>
     </row>
     <row r="46" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="102"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
@@ -12009,11 +12009,11 @@
       <c r="U46" s="69"/>
     </row>
     <row r="47" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="102"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
@@ -12032,11 +12032,11 @@
       <c r="U47" s="69"/>
     </row>
     <row r="48" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="102"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -12055,11 +12055,11 @@
       <c r="U48" s="69"/>
     </row>
     <row r="49" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
@@ -12078,11 +12078,11 @@
       <c r="U49" s="69"/>
     </row>
     <row r="50" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="102"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -12101,11 +12101,11 @@
       <c r="U50" s="69"/>
     </row>
     <row r="51" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
@@ -12124,11 +12124,11 @@
       <c r="U51" s="69"/>
     </row>
     <row r="52" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="102"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
@@ -12147,11 +12147,11 @@
       <c r="U52" s="69"/>
     </row>
     <row r="53" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="102"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
@@ -12170,11 +12170,11 @@
       <c r="U53" s="69"/>
     </row>
     <row r="54" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="105"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
@@ -12193,11 +12193,11 @@
       <c r="U54" s="69"/>
     </row>
     <row r="55" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="105"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
@@ -12216,11 +12216,11 @@
       <c r="U55" s="69"/>
     </row>
     <row r="56" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="105"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
@@ -12239,11 +12239,11 @@
       <c r="U56" s="69"/>
     </row>
     <row r="57" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="102"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="105"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
@@ -12262,11 +12262,11 @@
       <c r="U57" s="69"/>
     </row>
     <row r="58" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="102"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="105"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
       <c r="H58" s="69"/>
@@ -12285,11 +12285,11 @@
       <c r="U58" s="69"/>
     </row>
     <row r="59" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="102"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="105"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
@@ -12308,11 +12308,11 @@
       <c r="U59" s="69"/>
     </row>
     <row r="60" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="102"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="105"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="117"/>
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
       <c r="H60" s="69"/>
@@ -12331,11 +12331,11 @@
       <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="102"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="105"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="69"/>
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
@@ -12354,11 +12354,11 @@
       <c r="U61" s="69"/>
     </row>
     <row r="62" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="102"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="105"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="117"/>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
       <c r="H62" s="69"/>
@@ -12377,11 +12377,11 @@
       <c r="U62" s="69"/>
     </row>
     <row r="63" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="105"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="117"/>
       <c r="F63" s="69"/>
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
@@ -12400,11 +12400,11 @@
       <c r="U63" s="69"/>
     </row>
     <row r="64" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="102"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="105"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="117"/>
       <c r="F64" s="69"/>
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
@@ -12423,11 +12423,11 @@
       <c r="U64" s="69"/>
     </row>
     <row r="65" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="102"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="105"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="117"/>
       <c r="F65" s="69"/>
       <c r="G65" s="69"/>
       <c r="H65" s="69"/>
@@ -12446,11 +12446,11 @@
       <c r="U65" s="69"/>
     </row>
     <row r="66" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="102"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="105"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="117"/>
       <c r="F66" s="69"/>
       <c r="G66" s="69"/>
       <c r="H66" s="69"/>
@@ -12469,11 +12469,11 @@
       <c r="U66" s="69"/>
     </row>
     <row r="67" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="102"/>
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="105"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="117"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
       <c r="H67" s="69"/>
@@ -12492,11 +12492,11 @@
       <c r="U67" s="69"/>
     </row>
     <row r="68" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="102"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="105"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="117"/>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
       <c r="H68" s="69"/>
@@ -12515,11 +12515,11 @@
       <c r="U68" s="69"/>
     </row>
     <row r="69" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="102"/>
-      <c r="B69" s="103"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="105"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="117"/>
       <c r="F69" s="69"/>
       <c r="G69" s="69"/>
       <c r="H69" s="69"/>
@@ -12538,11 +12538,11 @@
       <c r="U69" s="69"/>
     </row>
     <row r="70" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="102"/>
-      <c r="B70" s="103"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="105"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="117"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
       <c r="H70" s="69"/>
@@ -12561,11 +12561,11 @@
       <c r="U70" s="69"/>
     </row>
     <row r="71" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="102"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="105"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="117"/>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
@@ -12583,11 +12583,11 @@
       <c r="U71" s="69"/>
     </row>
     <row r="72" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="102"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="105"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="117"/>
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
       <c r="H72" s="69"/>
@@ -12606,11 +12606,11 @@
       <c r="U72" s="69"/>
     </row>
     <row r="73" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="102"/>
-      <c r="B73" s="103"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="105"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="117"/>
       <c r="F73" s="69"/>
       <c r="G73" s="69"/>
       <c r="H73" s="69"/>
@@ -12628,11 +12628,11 @@
       <c r="U73" s="69"/>
     </row>
     <row r="74" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="102"/>
-      <c r="B74" s="103"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="105"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="117"/>
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
       <c r="H74" s="69"/>
@@ -12651,11 +12651,11 @@
       <c r="U74" s="69"/>
     </row>
     <row r="75" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="102"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="105"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="117"/>
       <c r="F75" s="69"/>
       <c r="G75" s="69"/>
       <c r="H75" s="69"/>
@@ -12674,11 +12674,11 @@
       <c r="U75" s="69"/>
     </row>
     <row r="76" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="102"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="105"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="117"/>
       <c r="F76" s="69"/>
       <c r="G76" s="69"/>
       <c r="H76" s="69"/>
@@ -12697,11 +12697,11 @@
       <c r="U76" s="69"/>
     </row>
     <row r="77" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="102"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="105"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117"/>
       <c r="F77" s="69"/>
       <c r="G77" s="69"/>
       <c r="H77" s="69"/>
@@ -12720,11 +12720,11 @@
       <c r="U77" s="69"/>
     </row>
     <row r="78" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="102"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="105"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="117"/>
       <c r="F78" s="69"/>
       <c r="G78" s="69"/>
       <c r="H78" s="69"/>
@@ -12743,11 +12743,11 @@
       <c r="U78" s="69"/>
     </row>
     <row r="79" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="102"/>
-      <c r="B79" s="103"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="105"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117"/>
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
       <c r="H79" s="69"/>
@@ -12766,11 +12766,11 @@
       <c r="U79" s="69"/>
     </row>
     <row r="80" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="102"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="105"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="117"/>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
       <c r="H80" s="69"/>
@@ -12789,11 +12789,11 @@
       <c r="U80" s="69"/>
     </row>
     <row r="81" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="102"/>
-      <c r="B81" s="103"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="105"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="69"/>
@@ -12811,11 +12811,11 @@
       <c r="U81" s="69"/>
     </row>
     <row r="82" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="102"/>
-      <c r="B82" s="103"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="105"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
       <c r="H82" s="69"/>
@@ -12835,16 +12835,16 @@
     </row>
     <row r="83" spans="1:21" s="65" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="73"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="101"/>
-      <c r="N83" s="101"/>
-      <c r="O83" s="101"/>
-      <c r="P83" s="101"/>
-      <c r="Q83" s="101"/>
-      <c r="R83" s="101"/>
-      <c r="S83" s="101"/>
-      <c r="T83" s="101"/>
-      <c r="U83" s="101"/>
+      <c r="L83" s="118"/>
+      <c r="M83" s="118"/>
+      <c r="N83" s="118"/>
+      <c r="O83" s="118"/>
+      <c r="P83" s="118"/>
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118"/>
+      <c r="S83" s="118"/>
+      <c r="T83" s="118"/>
+      <c r="U83" s="118"/>
     </row>
     <row r="84" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L84" s="75"/>
@@ -12860,6 +12860,127 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="L83:U83"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -12876,127 +12997,6 @@
     <mergeCell ref="F30:U30"/>
     <mergeCell ref="F31:U31"/>
     <mergeCell ref="L28:U28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="L83:U83"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:V5 F28:U1048576 F3:AI3 F1:F2 F4:H4 U27:AF27 AJ27 F5:I6 P9:U9 F12:O12 F14:S14 F13:N13 P13:R13 F15:T15 W16:AC16 F16:U16 X17:AB17 F17:V17 Z19:AC19 AB21:AG21 Z21 AC22:AI22 Z22:AA22 AD23:AJ23 AG25:AJ26 M4:U4 M11:P11 L6:N6 S6:W6 M7:N7 Q7:U7 T13:V13 U14:W14 Z13:AA14 AB15:AC15 Z18:AD18 AA20:AC20 AG20:AJ20 F18:T23 F25:T27 F24:R24 AG24 F7:K11 L10:L11 Q10:T10 V10:AJ10 O10 S12:W12 U18:Y22 U23:AB23 T24:AC24 U25:AD26 Q11:R12 L8:M9 J4:K6 Q5:R6 N8:U8 O6:P7 S11:Y11 V15:Z15 AD19:AD20 N9:N10 L5:O5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/input data/Test Schedule.XLSX
+++ b/input data/Test Schedule.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="107. АСУ ТП" sheetId="4" r:id="rId1"/>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
   <si>
     <t>суб., вос.</t>
   </si>
@@ -2175,6 +2175,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,21 +2227,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2362,7 +2362,1897 @@
     <cellStyle name="Финансовый 4" xfId="128"/>
     <cellStyle name="Финансовый 5" xfId="129"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="340">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7901,8 +9791,8 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J10" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8141,7 +10031,9 @@
       <c r="H5" s="12"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="12"/>
@@ -8149,7 +10041,9 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="S5" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -8163,7 +10057,9 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
+      <c r="AG5" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
@@ -8194,7 +10090,9 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="12"/>
@@ -8362,7 +10260,9 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="26"/>
-      <c r="AG10" s="18"/>
+      <c r="AG10" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="36">
@@ -8426,12 +10326,16 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="T12" s="26"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="26"/>
-      <c r="X12" s="10"/>
+      <c r="X12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="26"/>
@@ -8473,7 +10377,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="10"/>
@@ -8495,15 +10401,21 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="38"/>
+      <c r="J14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="L14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M14" s="20"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="R14" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="S14" s="20"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
@@ -8547,8 +10459,12 @@
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
       <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
+      <c r="X15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
       <c r="AB15" s="24"/>
@@ -8568,75 +10484,277 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A16:R1048576 L11 AB12:AC12 AG13:AG14 AD4:AE7 D4:D7 S4:AC6 L4:N4 M7:M10 AF4:AG6 AE8 N5:N11 L9 P13:P15 X12:Z12 P12:S12 Q13:X13 T11 Z13:AE13 X10:AE10 W9:AE9 AG7:AG10 AE11:AG12 R9:T10 U9:V12 Q14:Q15 R11 L5:M6 I7:L7 O4:O15 I4:K6 AF7:AF8 AB7:AC8 AA8 A3:C4 D9:D15 E4:H4 T7:Z8 W11:AB11 P4:Q6 R4:R8 I9:K11 E6:H9 F5:H5 E12:N15 E11:G11 P8:Q11 Q7 J8:K8 E10:F10 H10 A6:C15 A5:B5 R14:S14 U14:AE14 R15:AG15">
-    <cfRule type="cellIs" dxfId="69" priority="76" operator="equal">
+  <conditionalFormatting sqref="A16:R1048576 L11 AB12:AC12 AG13:AG14 AD4:AE7 D4:D7 S4:AC4 M7:M10 AF4:AG4 AE8 N5:N11 L9 P13:P15 Y12:Z12 P12:R12 Q13:X13 T11 Z13 X10:AE10 W9:AE9 AG7:AG9 AE11:AG12 R9:T10 U9:V12 Q14:Q15 R11 L5:M6 I7:L7 O4:O15 AF7:AF8 AB7:AC8 AA8 A3:C4 D9:D15 E4:N4 T7:Z8 W11:AB11 P4:Q6 R4:R8 I9:K11 E6:H9 E12:N13 E11:G11 P8:Q11 Q7 J8:K8 E10:F10 H10 A6:C15 A5:B5 S14 U14:AE14 R15:W15 E15:N15 E14:I14 K14 M14:N14 I6:K6 F5:J5 S6:X6 Z6:AC6 T5:AC5 Z15:AG15 AB13:AE13 AF6:AG6 AF5">
+    <cfRule type="cellIs" dxfId="339" priority="136" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="137" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="138" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="139" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="140" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8 AG14">
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="131" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="132" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="133" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="134" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="135" stopIfTrue="1" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AE14">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="123" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="124" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="125" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="126" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="127" stopIfTrue="1" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="86" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="87" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="88" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="89" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="90" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="319" priority="81" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="82" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="83" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="84" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="85" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="cellIs" dxfId="314" priority="76" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="77" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="78" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="79" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="309" priority="71" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="72" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="73" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="74" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="304" priority="61" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="62" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="63" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="64" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="65" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="66" operator="equal">
+      <formula>"ЕТО ТО5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="67" operator="equal">
+      <formula>"ЕТО ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="68" operator="equal">
+      <formula>"ЕТО ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="69" operator="equal">
+      <formula>"ЕТО ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="70" operator="equal">
+      <formula>"ЕТО ТО1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="109" priority="51" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="52" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="99" priority="46" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="47" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="48" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="49" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
+    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="44" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="cellIs" dxfId="79" priority="36" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="39" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="cellIs" dxfId="69" priority="31" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="32" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
     <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
@@ -8653,75 +10771,77 @@
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+  <conditionalFormatting sqref="X15:Y15">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
-      <formula>"ТО3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
-      <formula>"ТО2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
-      <formula>"ТО1"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
-      <formula>"ЕТО ТО5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
-      <formula>"ЕТО ТО4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
-      <formula>"ЕТО ТО2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
-      <formula>"ЕТО ТО3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
-      <formula>"ЕТО ТО1"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="2" min="1" max="32" man="1"/>
   </rowBreaks>
@@ -8736,8 +10856,8 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8998,93 +11118,41 @@
       <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="10" t="s">
         <v>23</v>
       </c>
@@ -9096,99 +11164,39 @@
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="10"/>
       <c r="AE7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -9197,101 +11205,45 @@
       <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -9300,46 +11252,38 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
+      <c r="AA9" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
     </row>
@@ -9353,95 +11297,39 @@
       <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9474,57 +11362,89 @@
     <mergeCell ref="A2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:O1 A1:A2 C1:L1">
-    <cfRule type="cellIs" dxfId="24" priority="3597" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="3607" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3598" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="3608" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3599" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="3609" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3600" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="3610" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3601" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="3611" stopIfTrue="1" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 C5:AG5 A4:B6 A8:E10 N1:O1 A3:R3 C1:L1 A1:A2 A11:R1048576 J6:AG7 G9:M9 C6:I6 E10:AG10 A7:I7 F8:AG8 O9:AG9">
-    <cfRule type="cellIs" dxfId="19" priority="3587" operator="equal">
+  <conditionalFormatting sqref="C4 C5:AG5 A4:B6 N1:O1 A3:R3 C1:L1 A1:A2 A11:R1048576 G9:M9 A7:I7 F8:AG8 E10:AG10 O9:AG9 J6:AG7 C6:I6 A8:E10">
+    <cfRule type="cellIs" dxfId="289" priority="3597" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3588" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="3598" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3589" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="3599" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3590" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="3600" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3591" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="3601" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3592" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="3602" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3593" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="3603" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3594" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="3604" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3595" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="3605" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3596" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="3606" operator="equal">
+      <formula>"ЕТО ТО1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="149" priority="1" operator="equal">
+      <formula>"ТО5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="equal">
+      <formula>"ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="3" operator="equal">
+      <formula>"ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
+      <formula>"ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="5" operator="equal">
+      <formula>"ТО1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="6" operator="equal">
+      <formula>"ЕТО ТО5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
+      <formula>"ЕТО ТО4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
+      <formula>"ЕТО ТО2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="9" operator="equal">
+      <formula>"ЕТО ТО3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="10" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9537,7 +11457,7 @@
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:AJ6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10024,32 +11944,32 @@
     <mergeCell ref="E5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:U1048576 F5 F1:U2 F4:U4 F7:AJ8">
-    <cfRule type="cellIs" dxfId="9" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="405" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="406" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="407" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="408" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:AJ7">
-    <cfRule type="cellIs" dxfId="5" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="390" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="391" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="392" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="4" max="35" man="1"/>
   </rowBreaks>
@@ -10064,8 +11984,8 @@
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10079,101 +11999,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="105"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="110"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="106" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="108"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="113"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="48">
         <v>1</v>
       </c>
@@ -10297,15 +12217,9 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="48"/>
       <c r="R4" s="48"/>
-      <c r="S4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
       <c r="V4" s="57"/>
       <c r="W4" s="57"/>
       <c r="X4" s="58"/>
@@ -10352,18 +12266,10 @@
       <c r="O5" s="47"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
-      <c r="S5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="57"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="58"/>
@@ -10410,18 +12316,10 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
-      <c r="S6" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
       <c r="W6" s="62" t="s">
         <v>18</v>
       </c>
@@ -10469,12 +12367,8 @@
       <c r="P7" s="47"/>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
-      <c r="S7" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="47"/>
       <c r="V7" s="57"/>
       <c r="W7" s="57"/>
@@ -10523,12 +12417,8 @@
       <c r="P8" s="47"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
-      <c r="S8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="47"/>
       <c r="V8" s="57"/>
       <c r="W8" s="57"/>
@@ -10576,9 +12466,7 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
-      <c r="S9" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="S9" s="62"/>
       <c r="T9" s="47"/>
       <c r="U9" s="47"/>
       <c r="V9" s="57"/>
@@ -10681,15 +12569,9 @@
       <c r="S11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="V11" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
       <c r="W11" s="62" t="s">
         <v>18</v>
       </c>
@@ -10740,9 +12622,7 @@
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
-      <c r="V12" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="V12" s="62"/>
       <c r="W12" s="62" t="s">
         <v>18</v>
       </c>
@@ -10798,9 +12678,7 @@
       <c r="Z13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AA13" s="62"/>
       <c r="AB13" s="57"/>
       <c r="AC13" s="57"/>
       <c r="AD13" s="57"/>
@@ -10851,9 +12729,7 @@
       <c r="Z14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AA14" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AA14" s="62"/>
       <c r="AB14" s="57"/>
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
@@ -10903,12 +12779,8 @@
       <c r="Y15" s="48"/>
       <c r="Z15" s="47"/>
       <c r="AA15" s="49"/>
-      <c r="AB15" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC15" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
       <c r="AD15" s="49"/>
       <c r="AE15" s="58"/>
       <c r="AF15" s="58"/>
@@ -10956,12 +12828,8 @@
       <c r="Y16" s="48"/>
       <c r="Z16" s="47"/>
       <c r="AA16" s="47"/>
-      <c r="AB16" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC16" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
       <c r="AD16" s="57"/>
       <c r="AE16" s="58"/>
       <c r="AF16" s="58"/>
@@ -11009,9 +12877,7 @@
       <c r="Y17" s="48"/>
       <c r="Z17" s="47"/>
       <c r="AA17" s="47"/>
-      <c r="AB17" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB17" s="62"/>
       <c r="AC17" s="57"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="58"/>
@@ -11052,9 +12918,7 @@
       <c r="R18" s="48"/>
       <c r="S18" s="47"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="47" t="s">
-        <v>5</v>
-      </c>
+      <c r="U18" s="47"/>
       <c r="V18" s="47"/>
       <c r="W18" s="47"/>
       <c r="X18" s="48"/>
@@ -11062,15 +12926,9 @@
       <c r="Z18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AA18" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB18" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC18" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
       <c r="AD18" s="62" t="s">
         <v>18</v>
       </c>
@@ -11113,24 +12971,16 @@
       <c r="S19" s="47"/>
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
-      <c r="V19" s="47" t="s">
-        <v>5</v>
-      </c>
+      <c r="V19" s="47"/>
       <c r="W19" s="47"/>
       <c r="X19" s="48"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AA19" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB19" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC19" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
       <c r="AD19" s="47"/>
       <c r="AE19" s="58"/>
       <c r="AF19" s="58"/>
@@ -11183,15 +13033,9 @@
       <c r="AD20" s="47"/>
       <c r="AE20" s="58"/>
       <c r="AF20" s="58"/>
-      <c r="AG20" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH20" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI20" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
       <c r="AJ20" s="62" t="s">
         <v>18</v>
       </c>
@@ -11240,9 +13084,7 @@
       <c r="AD21" s="47"/>
       <c r="AE21" s="48"/>
       <c r="AF21" s="48"/>
-      <c r="AG21" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AG21" s="62"/>
       <c r="AH21" s="57"/>
       <c r="AI21" s="57"/>
       <c r="AJ21" s="57"/>
@@ -11292,12 +13134,8 @@
       <c r="AE22" s="48"/>
       <c r="AF22" s="48"/>
       <c r="AG22" s="47"/>
-      <c r="AH22" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI22" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
       <c r="AJ22" s="57"/>
     </row>
     <row r="23" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11392,9 +13230,7 @@
       <c r="AC24" s="47"/>
       <c r="AE24" s="58"/>
       <c r="AF24" s="58"/>
-      <c r="AG24" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AG24" s="62"/>
       <c r="AH24" s="57"/>
       <c r="AI24" s="57"/>
       <c r="AJ24" s="57"/>
@@ -11438,19 +13274,13 @@
       <c r="Z25" s="47"/>
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
-      <c r="AC25" s="47" t="s">
-        <v>5</v>
-      </c>
+      <c r="AC25" s="47"/>
       <c r="AD25" s="47"/>
       <c r="AE25" s="58"/>
       <c r="AF25" s="58"/>
       <c r="AG25" s="47"/>
-      <c r="AH25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI25" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
       <c r="AJ25" s="62" t="s">
         <v>18</v>
       </c>
@@ -11503,15 +13333,9 @@
       <c r="AG26" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AH26" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI26" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ26" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
     </row>
     <row r="27" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
@@ -11575,16 +13399,16 @@
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
       <c r="V28" s="59"/>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
@@ -11607,69 +13431,69 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
     </row>
     <row r="30" spans="1:36" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="110"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
     </row>
     <row r="31" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="110"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
     </row>
     <row r="32" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="66"/>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -11688,11 +13512,11 @@
       <c r="U32" s="68"/>
     </row>
     <row r="33" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
@@ -11734,11 +13558,11 @@
       <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
@@ -11757,11 +13581,11 @@
       <c r="U35" s="69"/>
     </row>
     <row r="36" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
@@ -11780,11 +13604,11 @@
       <c r="U36" s="69"/>
     </row>
     <row r="37" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="117"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
@@ -11803,11 +13627,11 @@
       <c r="U37" s="69"/>
     </row>
     <row r="38" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="117"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
@@ -11826,11 +13650,11 @@
       <c r="U38" s="69"/>
     </row>
     <row r="39" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="117"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
@@ -11848,11 +13672,11 @@
       <c r="U39" s="69"/>
     </row>
     <row r="40" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="117"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
@@ -11871,11 +13695,11 @@
       <c r="U40" s="69"/>
     </row>
     <row r="41" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
@@ -11894,11 +13718,11 @@
       <c r="U41" s="69"/>
     </row>
     <row r="42" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="117"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
@@ -11917,11 +13741,11 @@
       <c r="U42" s="69"/>
     </row>
     <row r="43" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
@@ -11940,11 +13764,11 @@
       <c r="U43" s="69"/>
     </row>
     <row r="44" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
@@ -11963,11 +13787,11 @@
       <c r="U44" s="69"/>
     </row>
     <row r="45" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
@@ -11986,11 +13810,11 @@
       <c r="U45" s="69"/>
     </row>
     <row r="46" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
@@ -12009,11 +13833,11 @@
       <c r="U46" s="69"/>
     </row>
     <row r="47" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
@@ -12032,11 +13856,11 @@
       <c r="U47" s="69"/>
     </row>
     <row r="48" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -12055,11 +13879,11 @@
       <c r="U48" s="69"/>
     </row>
     <row r="49" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="114"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
@@ -12078,11 +13902,11 @@
       <c r="U49" s="69"/>
     </row>
     <row r="50" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -12101,11 +13925,11 @@
       <c r="U50" s="69"/>
     </row>
     <row r="51" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="114"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="117"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="105"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
@@ -12124,11 +13948,11 @@
       <c r="U51" s="69"/>
     </row>
     <row r="52" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="114"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="117"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
@@ -12147,11 +13971,11 @@
       <c r="U52" s="69"/>
     </row>
     <row r="53" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="117"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
@@ -12170,11 +13994,11 @@
       <c r="U53" s="69"/>
     </row>
     <row r="54" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="114"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="117"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="105"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
@@ -12193,11 +14017,11 @@
       <c r="U54" s="69"/>
     </row>
     <row r="55" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="117"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="105"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
@@ -12216,11 +14040,11 @@
       <c r="U55" s="69"/>
     </row>
     <row r="56" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="117"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="105"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
@@ -12239,11 +14063,11 @@
       <c r="U56" s="69"/>
     </row>
     <row r="57" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="117"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="105"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
@@ -12262,11 +14086,11 @@
       <c r="U57" s="69"/>
     </row>
     <row r="58" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="117"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="105"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
       <c r="H58" s="69"/>
@@ -12285,11 +14109,11 @@
       <c r="U58" s="69"/>
     </row>
     <row r="59" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="114"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="117"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
@@ -12308,11 +14132,11 @@
       <c r="U59" s="69"/>
     </row>
     <row r="60" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="117"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
       <c r="H60" s="69"/>
@@ -12331,11 +14155,11 @@
       <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="105"/>
       <c r="F61" s="69"/>
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
@@ -12354,11 +14178,11 @@
       <c r="U61" s="69"/>
     </row>
     <row r="62" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="114"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="117"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="105"/>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
       <c r="H62" s="69"/>
@@ -12377,11 +14201,11 @@
       <c r="U62" s="69"/>
     </row>
     <row r="63" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="117"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="105"/>
       <c r="F63" s="69"/>
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
@@ -12400,11 +14224,11 @@
       <c r="U63" s="69"/>
     </row>
     <row r="64" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="117"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="105"/>
       <c r="F64" s="69"/>
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
@@ -12423,11 +14247,11 @@
       <c r="U64" s="69"/>
     </row>
     <row r="65" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="117"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="105"/>
       <c r="F65" s="69"/>
       <c r="G65" s="69"/>
       <c r="H65" s="69"/>
@@ -12446,11 +14270,11 @@
       <c r="U65" s="69"/>
     </row>
     <row r="66" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="114"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="117"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="105"/>
       <c r="F66" s="69"/>
       <c r="G66" s="69"/>
       <c r="H66" s="69"/>
@@ -12469,11 +14293,11 @@
       <c r="U66" s="69"/>
     </row>
     <row r="67" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="114"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
-      <c r="E67" s="117"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="105"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
       <c r="H67" s="69"/>
@@ -12492,11 +14316,11 @@
       <c r="U67" s="69"/>
     </row>
     <row r="68" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="114"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="117"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="105"/>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
       <c r="H68" s="69"/>
@@ -12515,11 +14339,11 @@
       <c r="U68" s="69"/>
     </row>
     <row r="69" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="114"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="105"/>
       <c r="F69" s="69"/>
       <c r="G69" s="69"/>
       <c r="H69" s="69"/>
@@ -12538,11 +14362,11 @@
       <c r="U69" s="69"/>
     </row>
     <row r="70" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="114"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="117"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="105"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
       <c r="H70" s="69"/>
@@ -12561,11 +14385,11 @@
       <c r="U70" s="69"/>
     </row>
     <row r="71" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="114"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="116"/>
-      <c r="E71" s="117"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="105"/>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
@@ -12583,11 +14407,11 @@
       <c r="U71" s="69"/>
     </row>
     <row r="72" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="114"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="116"/>
-      <c r="E72" s="117"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="105"/>
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
       <c r="H72" s="69"/>
@@ -12606,11 +14430,11 @@
       <c r="U72" s="69"/>
     </row>
     <row r="73" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="114"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="117"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="105"/>
       <c r="F73" s="69"/>
       <c r="G73" s="69"/>
       <c r="H73" s="69"/>
@@ -12628,11 +14452,11 @@
       <c r="U73" s="69"/>
     </row>
     <row r="74" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="114"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="117"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="105"/>
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
       <c r="H74" s="69"/>
@@ -12651,11 +14475,11 @@
       <c r="U74" s="69"/>
     </row>
     <row r="75" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="114"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="117"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="105"/>
       <c r="F75" s="69"/>
       <c r="G75" s="69"/>
       <c r="H75" s="69"/>
@@ -12674,11 +14498,11 @@
       <c r="U75" s="69"/>
     </row>
     <row r="76" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="114"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="116"/>
-      <c r="E76" s="117"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="105"/>
       <c r="F76" s="69"/>
       <c r="G76" s="69"/>
       <c r="H76" s="69"/>
@@ -12697,11 +14521,11 @@
       <c r="U76" s="69"/>
     </row>
     <row r="77" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="114"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="117"/>
+      <c r="A77" s="102"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="105"/>
       <c r="F77" s="69"/>
       <c r="G77" s="69"/>
       <c r="H77" s="69"/>
@@ -12720,11 +14544,11 @@
       <c r="U77" s="69"/>
     </row>
     <row r="78" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="114"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="117"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="105"/>
       <c r="F78" s="69"/>
       <c r="G78" s="69"/>
       <c r="H78" s="69"/>
@@ -12743,11 +14567,11 @@
       <c r="U78" s="69"/>
     </row>
     <row r="79" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="114"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="117"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="103"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
       <c r="H79" s="69"/>
@@ -12766,11 +14590,11 @@
       <c r="U79" s="69"/>
     </row>
     <row r="80" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="114"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="116"/>
-      <c r="E80" s="117"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="105"/>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
       <c r="H80" s="69"/>
@@ -12789,11 +14613,11 @@
       <c r="U80" s="69"/>
     </row>
     <row r="81" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="114"/>
-      <c r="B81" s="115"/>
-      <c r="C81" s="116"/>
-      <c r="D81" s="116"/>
-      <c r="E81" s="117"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="105"/>
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="69"/>
@@ -12811,11 +14635,11 @@
       <c r="U81" s="69"/>
     </row>
     <row r="82" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="114"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="117"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="105"/>
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
       <c r="H82" s="69"/>
@@ -12835,16 +14659,16 @@
     </row>
     <row r="83" spans="1:21" s="65" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="73"/>
-      <c r="L83" s="118"/>
-      <c r="M83" s="118"/>
-      <c r="N83" s="118"/>
-      <c r="O83" s="118"/>
-      <c r="P83" s="118"/>
-      <c r="Q83" s="118"/>
-      <c r="R83" s="118"/>
-      <c r="S83" s="118"/>
-      <c r="T83" s="118"/>
-      <c r="U83" s="118"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="101"/>
+      <c r="P83" s="101"/>
+      <c r="Q83" s="101"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="101"/>
+      <c r="U83" s="101"/>
     </row>
     <row r="84" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L84" s="75"/>
@@ -12860,127 +14684,6 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="L83:U83"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -12997,15 +14700,136 @@
     <mergeCell ref="F30:U30"/>
     <mergeCell ref="F31:U31"/>
     <mergeCell ref="L28:U28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="L83:U83"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:V5 F28:U1048576 F3:AI3 F1:F2 F4:H4 U27:AF27 AJ27 F5:I6 P9:U9 F12:O12 F14:S14 F13:N13 P13:R13 F15:T15 W16:AC16 F16:U16 X17:AB17 F17:V17 Z19:AC19 AB21:AG21 Z21 AC22:AI22 Z22:AA22 AD23:AJ23 AG25:AJ26 M4:U4 M11:P11 L6:N6 S6:W6 M7:N7 Q7:U7 T13:V13 U14:W14 Z13:AA14 AB15:AC15 Z18:AD18 AA20:AC20 AG20:AJ20 F18:T23 F25:T27 F24:R24 AG24 F7:K11 L10:L11 Q10:T10 V10:AJ10 O10 S12:W12 U18:Y22 U23:AB23 T24:AC24 U25:AD26 Q11:R12 L8:M9 J4:K6 Q5:R6 N8:U8 O6:P7 S11:Y11 V15:Z15 AD19:AD20 N9:N10 L5:O5">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="1" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="2" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="3" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input data/Test Schedule.XLSX
+++ b/input data/Test Schedule.XLSX
@@ -894,7 +894,7 @@
     <definedName name="эккона" localSheetId="2">#REF!</definedName>
     <definedName name="эккона">[3]Константы!$A$11</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2175,21 +2175,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,6 +2212,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2362,1897 +2362,7 @@
     <cellStyle name="Финансовый 4" xfId="128"/>
     <cellStyle name="Финансовый 5" xfId="129"/>
   </cellStyles>
-  <dxfs count="340">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="140">
     <dxf>
       <font>
         <b/>
@@ -4438,6 +2548,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
@@ -4467,6 +2647,426 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10485,238 +9085,238 @@
     <mergeCell ref="Z2:AC2"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:R1048576 L11 AB12:AC12 AG13:AG14 AD4:AE7 D4:D7 S4:AC4 M7:M10 AF4:AG4 AE8 N5:N11 L9 P13:P15 Y12:Z12 P12:R12 Q13:X13 T11 Z13 X10:AE10 W9:AE9 AG7:AG9 AE11:AG12 R9:T10 U9:V12 Q14:Q15 R11 L5:M6 I7:L7 O4:O15 AF7:AF8 AB7:AC8 AA8 A3:C4 D9:D15 E4:N4 T7:Z8 W11:AB11 P4:Q6 R4:R8 I9:K11 E6:H9 E12:N13 E11:G11 P8:Q11 Q7 J8:K8 E10:F10 H10 A6:C15 A5:B5 S14 U14:AE14 R15:W15 E15:N15 E14:I14 K14 M14:N14 I6:K6 F5:J5 S6:X6 Z6:AC6 T5:AC5 Z15:AG15 AB13:AE13 AF6:AG6 AF5">
-    <cfRule type="cellIs" dxfId="339" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="136" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="137" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="139" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="140" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8 AG14">
-    <cfRule type="cellIs" dxfId="334" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="131" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="132" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="133" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="134" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="135" stopIfTrue="1" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AE14">
-    <cfRule type="cellIs" dxfId="329" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="123" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="127" stopIfTrue="1" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="324" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="86" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="87" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="88" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="89" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="90" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="319" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="81" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="82" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="83" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="84" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="85" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="314" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="76" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="77" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="78" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="79" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="80" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="309" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="71" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="72" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="73" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="74" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="75" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="304" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="61" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="62" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="63" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="64" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="65" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="67" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="68" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="69" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="70" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="56" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="57" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="58" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="60" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="109" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="51" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="52" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="53" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="55" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="99" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="47" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="48" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="49" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="50" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="41" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="42" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="43" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="45" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="79" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="36" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="37" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="38" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="39" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="40" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10738,104 +9338,104 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="25" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:Y15">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="17" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="18" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11362,83 +9962,83 @@
     <mergeCell ref="A2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:O1 A1:A2 C1:L1">
-    <cfRule type="cellIs" dxfId="294" priority="3607" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3607" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="3608" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3608" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="3609" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3609" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="3610" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3610" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="3611" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3611" stopIfTrue="1" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C5:AG5 A4:B6 N1:O1 A3:R3 C1:L1 A1:A2 A11:R1048576 G9:M9 A7:I7 F8:AG8 E10:AG10 O9:AG9 J6:AG7 C6:I6 A8:E10">
-    <cfRule type="cellIs" dxfId="289" priority="3597" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3597" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="3598" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3598" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="3599" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3599" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="3600" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3600" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="3601" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3601" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="3602" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3602" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="3603" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3603" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="3604" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3604" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="3605" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3605" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="3606" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3606" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="149" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"ЕТО ТО5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"ЕТО ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"ЕТО ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"ЕТО ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"ЕТО ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11944,27 +10544,27 @@
     <mergeCell ref="E5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:U1048576 F5 F1:U2 F4:U4 F7:AJ8">
-    <cfRule type="cellIs" dxfId="279" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="405" operator="equal">
       <formula>"ТО4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="406" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="407" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="408" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:AJ7">
-    <cfRule type="cellIs" dxfId="275" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="390" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="391" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="392" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11999,101 +10599,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="110"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="105"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="111" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="113"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="108"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="48">
         <v>1</v>
       </c>
@@ -13399,16 +11999,16 @@
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
       <c r="V28" s="59"/>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
@@ -13431,69 +12031,69 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
     </row>
     <row r="30" spans="1:36" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
     </row>
     <row r="31" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
     </row>
     <row r="32" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="66"/>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -13512,11 +12112,11 @@
       <c r="U32" s="68"/>
     </row>
     <row r="33" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
@@ -13558,11 +12158,11 @@
       <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
@@ -13581,11 +12181,11 @@
       <c r="U35" s="69"/>
     </row>
     <row r="36" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
@@ -13604,11 +12204,11 @@
       <c r="U36" s="69"/>
     </row>
     <row r="37" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
@@ -13627,11 +12227,11 @@
       <c r="U37" s="69"/>
     </row>
     <row r="38" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="102"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
@@ -13650,11 +12250,11 @@
       <c r="U38" s="69"/>
     </row>
     <row r="39" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="102"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117"/>
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
@@ -13672,11 +12272,11 @@
       <c r="U39" s="69"/>
     </row>
     <row r="40" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="105"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
@@ -13695,11 +12295,11 @@
       <c r="U40" s="69"/>
     </row>
     <row r="41" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
@@ -13718,11 +12318,11 @@
       <c r="U41" s="69"/>
     </row>
     <row r="42" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
@@ -13741,11 +12341,11 @@
       <c r="U42" s="69"/>
     </row>
     <row r="43" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
@@ -13764,11 +12364,11 @@
       <c r="U43" s="69"/>
     </row>
     <row r="44" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="102"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
@@ -13787,11 +12387,11 @@
       <c r="U44" s="69"/>
     </row>
     <row r="45" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
@@ -13810,11 +12410,11 @@
       <c r="U45" s="69"/>
     </row>
     <row r="46" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="102"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
@@ -13833,11 +12433,11 @@
       <c r="U46" s="69"/>
     </row>
     <row r="47" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="102"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
@@ -13856,11 +12456,11 @@
       <c r="U47" s="69"/>
     </row>
     <row r="48" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="102"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -13879,11 +12479,11 @@
       <c r="U48" s="69"/>
     </row>
     <row r="49" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="117"/>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
@@ -13902,11 +12502,11 @@
       <c r="U49" s="69"/>
     </row>
     <row r="50" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="102"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="117"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -13925,11 +12525,11 @@
       <c r="U50" s="69"/>
     </row>
     <row r="51" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
@@ -13948,11 +12548,11 @@
       <c r="U51" s="69"/>
     </row>
     <row r="52" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="102"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="117"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
@@ -13971,11 +12571,11 @@
       <c r="U52" s="69"/>
     </row>
     <row r="53" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="102"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
@@ -13994,11 +12594,11 @@
       <c r="U53" s="69"/>
     </row>
     <row r="54" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="105"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
@@ -14017,11 +12617,11 @@
       <c r="U54" s="69"/>
     </row>
     <row r="55" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="105"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
@@ -14040,11 +12640,11 @@
       <c r="U55" s="69"/>
     </row>
     <row r="56" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="105"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
@@ -14063,11 +12663,11 @@
       <c r="U56" s="69"/>
     </row>
     <row r="57" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="102"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="105"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
@@ -14086,11 +12686,11 @@
       <c r="U57" s="69"/>
     </row>
     <row r="58" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="102"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="105"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="117"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
       <c r="H58" s="69"/>
@@ -14109,11 +12709,11 @@
       <c r="U58" s="69"/>
     </row>
     <row r="59" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="102"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="105"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
@@ -14132,11 +12732,11 @@
       <c r="U59" s="69"/>
     </row>
     <row r="60" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="102"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="105"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="117"/>
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
       <c r="H60" s="69"/>
@@ -14155,11 +12755,11 @@
       <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="102"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="105"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="69"/>
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
@@ -14178,11 +12778,11 @@
       <c r="U61" s="69"/>
     </row>
     <row r="62" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="102"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="105"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="117"/>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
       <c r="H62" s="69"/>
@@ -14201,11 +12801,11 @@
       <c r="U62" s="69"/>
     </row>
     <row r="63" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="105"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="117"/>
       <c r="F63" s="69"/>
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
@@ -14224,11 +12824,11 @@
       <c r="U63" s="69"/>
     </row>
     <row r="64" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="102"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="105"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="117"/>
       <c r="F64" s="69"/>
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
@@ -14247,11 +12847,11 @@
       <c r="U64" s="69"/>
     </row>
     <row r="65" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="102"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="105"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="117"/>
       <c r="F65" s="69"/>
       <c r="G65" s="69"/>
       <c r="H65" s="69"/>
@@ -14270,11 +12870,11 @@
       <c r="U65" s="69"/>
     </row>
     <row r="66" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="102"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="105"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="117"/>
       <c r="F66" s="69"/>
       <c r="G66" s="69"/>
       <c r="H66" s="69"/>
@@ -14293,11 +12893,11 @@
       <c r="U66" s="69"/>
     </row>
     <row r="67" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="102"/>
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="105"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="117"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
       <c r="H67" s="69"/>
@@ -14316,11 +12916,11 @@
       <c r="U67" s="69"/>
     </row>
     <row r="68" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="102"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="105"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="117"/>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
       <c r="H68" s="69"/>
@@ -14339,11 +12939,11 @@
       <c r="U68" s="69"/>
     </row>
     <row r="69" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="102"/>
-      <c r="B69" s="103"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="105"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="117"/>
       <c r="F69" s="69"/>
       <c r="G69" s="69"/>
       <c r="H69" s="69"/>
@@ -14362,11 +12962,11 @@
       <c r="U69" s="69"/>
     </row>
     <row r="70" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="102"/>
-      <c r="B70" s="103"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="105"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="117"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
       <c r="H70" s="69"/>
@@ -14385,11 +12985,11 @@
       <c r="U70" s="69"/>
     </row>
     <row r="71" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="102"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="105"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="117"/>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
@@ -14407,11 +13007,11 @@
       <c r="U71" s="69"/>
     </row>
     <row r="72" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="102"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="105"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="117"/>
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
       <c r="H72" s="69"/>
@@ -14430,11 +13030,11 @@
       <c r="U72" s="69"/>
     </row>
     <row r="73" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="102"/>
-      <c r="B73" s="103"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="105"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="117"/>
       <c r="F73" s="69"/>
       <c r="G73" s="69"/>
       <c r="H73" s="69"/>
@@ -14452,11 +13052,11 @@
       <c r="U73" s="69"/>
     </row>
     <row r="74" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="102"/>
-      <c r="B74" s="103"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="105"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="117"/>
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
       <c r="H74" s="69"/>
@@ -14475,11 +13075,11 @@
       <c r="U74" s="69"/>
     </row>
     <row r="75" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="102"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="105"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="117"/>
       <c r="F75" s="69"/>
       <c r="G75" s="69"/>
       <c r="H75" s="69"/>
@@ -14498,11 +13098,11 @@
       <c r="U75" s="69"/>
     </row>
     <row r="76" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="102"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="105"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="117"/>
       <c r="F76" s="69"/>
       <c r="G76" s="69"/>
       <c r="H76" s="69"/>
@@ -14521,11 +13121,11 @@
       <c r="U76" s="69"/>
     </row>
     <row r="77" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="102"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="105"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117"/>
       <c r="F77" s="69"/>
       <c r="G77" s="69"/>
       <c r="H77" s="69"/>
@@ -14544,11 +13144,11 @@
       <c r="U77" s="69"/>
     </row>
     <row r="78" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="102"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="105"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="117"/>
       <c r="F78" s="69"/>
       <c r="G78" s="69"/>
       <c r="H78" s="69"/>
@@ -14567,11 +13167,11 @@
       <c r="U78" s="69"/>
     </row>
     <row r="79" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="102"/>
-      <c r="B79" s="103"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="105"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117"/>
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
       <c r="H79" s="69"/>
@@ -14590,11 +13190,11 @@
       <c r="U79" s="69"/>
     </row>
     <row r="80" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="102"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="105"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="117"/>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
       <c r="H80" s="69"/>
@@ -14613,11 +13213,11 @@
       <c r="U80" s="69"/>
     </row>
     <row r="81" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="102"/>
-      <c r="B81" s="103"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="105"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="69"/>
@@ -14635,11 +13235,11 @@
       <c r="U81" s="69"/>
     </row>
     <row r="82" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="102"/>
-      <c r="B82" s="103"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="105"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
       <c r="H82" s="69"/>
@@ -14659,16 +13259,16 @@
     </row>
     <row r="83" spans="1:21" s="65" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="73"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="101"/>
-      <c r="N83" s="101"/>
-      <c r="O83" s="101"/>
-      <c r="P83" s="101"/>
-      <c r="Q83" s="101"/>
-      <c r="R83" s="101"/>
-      <c r="S83" s="101"/>
-      <c r="T83" s="101"/>
-      <c r="U83" s="101"/>
+      <c r="L83" s="118"/>
+      <c r="M83" s="118"/>
+      <c r="N83" s="118"/>
+      <c r="O83" s="118"/>
+      <c r="P83" s="118"/>
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118"/>
+      <c r="S83" s="118"/>
+      <c r="T83" s="118"/>
+      <c r="U83" s="118"/>
     </row>
     <row r="84" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L84" s="75"/>
@@ -14684,6 +13284,127 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="L83:U83"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -14700,136 +13421,15 @@
     <mergeCell ref="F30:U30"/>
     <mergeCell ref="F31:U31"/>
     <mergeCell ref="L28:U28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="L83:U83"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:V5 F28:U1048576 F3:AI3 F1:F2 F4:H4 U27:AF27 AJ27 F5:I6 P9:U9 F12:O12 F14:S14 F13:N13 P13:R13 F15:T15 W16:AC16 F16:U16 X17:AB17 F17:V17 Z19:AC19 AB21:AG21 Z21 AC22:AI22 Z22:AA22 AD23:AJ23 AG25:AJ26 M4:U4 M11:P11 L6:N6 S6:W6 M7:N7 Q7:U7 T13:V13 U14:W14 Z13:AA14 AB15:AC15 Z18:AD18 AA20:AC20 AG20:AJ20 F18:T23 F25:T27 F24:R24 AG24 F7:K11 L10:L11 Q10:T10 V10:AJ10 O10 S12:W12 U18:Y22 U23:AB23 T24:AC24 U25:AD26 Q11:R12 L8:M9 J4:K6 Q5:R6 N8:U8 O6:P7 S11:Y11 V15:Z15 AD19:AD20 N9:N10 L5:O5">
-    <cfRule type="cellIs" dxfId="272" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ТО3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ТО2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"ТО1"</formula>
     </cfRule>
   </conditionalFormatting>
